--- a/Fasování.xlsx
+++ b/Fasování.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Jméno</t>
   </si>
@@ -28,21 +28,18 @@
     <t>Přízemí</t>
   </si>
   <si>
-    <t>Rejhová Gerda</t>
-  </si>
-  <si>
-    <t>Nevim co tady po mně chcete</t>
-  </si>
-  <si>
-    <t>Ještě něco</t>
-  </si>
-  <si>
     <t>Strašilová</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
+    <t>dasdsad</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
     <t>První Patro</t>
   </si>
   <si>
@@ -52,7 +49,31 @@
     <t>Aby toho nebylo málo</t>
   </si>
   <si>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>dasda</t>
+  </si>
+  <si>
+    <t>dasdasdasd</t>
+  </si>
+  <si>
     <t>Druhé Patro</t>
+  </si>
+  <si>
+    <t>dasdasdas</t>
+  </si>
+  <si>
+    <t>dasdasdasda</t>
+  </si>
+  <si>
+    <t>dsadasdasdasd</t>
+  </si>
+  <si>
+    <t>sdasdasdasd</t>
+  </si>
+  <si>
+    <t>dasdasdasdasdasdasdasdasdasdas</t>
   </si>
 </sst>
 </file>
@@ -398,14 +419,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -433,34 +454,78 @@
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Fasování.xlsx
+++ b/Fasování.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Jméno</t>
   </si>
@@ -40,6 +40,12 @@
     <t>dasdasd</t>
   </si>
   <si>
+    <t>dasdasdasd</t>
+  </si>
+  <si>
+    <t>dasdasdasdasdasd</t>
+  </si>
+  <si>
     <t>První Patro</t>
   </si>
   <si>
@@ -53,9 +59,6 @@
   </si>
   <si>
     <t>dasda</t>
-  </si>
-  <si>
-    <t>dasdasdasd</t>
   </si>
   <si>
     <t>Druhé Patro</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,61 +464,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -523,9 +529,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
+    <row r="17" spans="1:2">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
